--- a/proto.xlsx
+++ b/proto.xlsx
@@ -165,9 +165,6 @@
     <t>LSB</t>
   </si>
   <si>
-    <t>MSB (0-1200)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data </t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>LSB right</t>
+  </si>
+  <si>
+    <t>LSB(0-1200)</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1311,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="2"/>
       <c r="K14" s="6" t="str">
-        <f t="shared" ref="K14:K38" si="0">CONCATENATE($H$2,$D$8,$E$10,F14,G14,H14,$H$3)</f>
+        <f t="shared" ref="K14:K36" si="0">CONCATENATE($H$2,$D$8,$E$10,F14,G14,H14,$H$3)</f>
         <v>*10010##</v>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2458,7 +2458,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="31"/>
       <c r="D7" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="45"/>
       <c r="F7" s="40"/>
@@ -2520,10 +2520,10 @@
       <c r="D11" s="39"/>
       <c r="E11" s="22"/>
       <c r="F11" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="2"/>
@@ -2556,10 +2556,10 @@
       <c r="F13" s="10"/>
       <c r="G13" s="22"/>
       <c r="H13" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="19"/>
       <c r="K13" s="6"/>
@@ -2587,7 +2587,7 @@
       <c r="C15" s="48"/>
       <c r="D15" s="49"/>
       <c r="E15" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="19"/>
       <c r="G15" s="2"/>
@@ -2600,7 +2600,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="25"/>
@@ -2614,10 +2614,10 @@
       <c r="D17" s="39"/>
       <c r="E17" s="22"/>
       <c r="F17" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>47</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2639,7 +2639,7 @@
       <c r="J18" s="2"/>
       <c r="K18" s="6" t="str">
         <f>CONCATENATE($H$2,D8,$E$16,$F$18,$G$18,$H$3)</f>
-        <v>*0100##</v>
+        <v>*0000##</v>
       </c>
     </row>
     <row r="19" spans="3:11">
@@ -2659,7 +2659,7 @@
       <c r="C20" s="39"/>
       <c r="D20" s="44"/>
       <c r="E20" s="24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="25"/>
@@ -2673,13 +2673,13 @@
       <c r="D21" s="39"/>
       <c r="E21" s="36"/>
       <c r="F21" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>47</v>
@@ -2706,7 +2706,7 @@
       <c r="J22" s="2"/>
       <c r="K22" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$20,$F$22,$G$22,H22,I22,$H$3)</f>
-        <v>*010000##</v>
+        <v>*020000##</v>
       </c>
     </row>
   </sheetData>

--- a/proto.xlsx
+++ b/proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21315" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Body" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">from digi </t>
-  </si>
-  <si>
     <t>to head</t>
   </si>
   <si>
@@ -181,6 +178,15 @@
   </si>
   <si>
     <t>LSB(0-1200)</t>
+  </si>
+  <si>
+    <t>hearbeat</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>from TCP</t>
   </si>
 </sst>
 </file>
@@ -196,15 +202,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -614,19 +626,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -707,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -742,9 +741,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -814,13 +810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -829,13 +819,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:L76"/>
+  <dimension ref="C2:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:K62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1142,1198 +1138,1085 @@
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="15.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="7" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11">
+    <row r="2" spans="3:9">
       <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11">
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+    </row>
+    <row r="5" spans="3:9" ht="15.75" thickBot="1"/>
+    <row r="6" spans="3:9" ht="27" customHeight="1" thickBot="1">
+      <c r="C6" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="15.75" thickBot="1"/>
-    <row r="6" spans="3:11" ht="27" customHeight="1" thickBot="1">
-      <c r="C6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11">
-      <c r="C7" s="15"/>
-      <c r="D7" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="18"/>
+    <row r="7" spans="3:9">
+      <c r="C7" s="14"/>
+      <c r="D7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C8" s="16"/>
-      <c r="D8" s="24">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C8" s="15"/>
+      <c r="D8" s="23">
         <v>1</v>
       </c>
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="3:11">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="3:9">
       <c r="C9" s="5"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="19"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="3:11" ht="15.75" thickBot="1">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="3:9" ht="15.75" thickBot="1">
       <c r="C10" s="5"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="3:11" ht="15.75" thickBot="1">
+      <c r="D10" s="16"/>
+      <c r="E10" s="23">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="3:9" ht="15.75" thickBot="1">
       <c r="C11" s="5"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C12" s="16"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="6" t="str">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="3:9" ht="15.75" thickBot="1">
+      <c r="C12" s="15"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$10,F12,G12,H12,$H$3)</f>
         <v>*10000##</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:9">
       <c r="C13" s="5"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="23" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="3:11" ht="15.75" thickBot="1">
+      <c r="H13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" thickBot="1">
       <c r="C14" s="5"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="24">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
+      <c r="E14" s="16"/>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23">
         <v>1</v>
       </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="6" t="str">
-        <f t="shared" ref="K14:K36" si="0">CONCATENATE($H$2,$D$8,$E$10,F14,G14,H14,$H$3)</f>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f t="shared" ref="I14:I36" si="0">CONCATENATE($H$2,$D$8,$E$10,F14,G14,H14,$H$3)</f>
         <v>*10010##</v>
       </c>
     </row>
-    <row r="15" spans="3:11">
+    <row r="15" spans="3:9">
       <c r="C15" s="5"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="16"/>
+      <c r="F15" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="3:11" ht="15.75" thickBot="1">
+      <c r="H15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="3:9" ht="15.75" thickBot="1">
       <c r="C16" s="5"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="24">
-        <v>0</v>
-      </c>
-      <c r="G16" s="24">
+      <c r="E16" s="16"/>
+      <c r="F16" s="23">
+        <v>0</v>
+      </c>
+      <c r="G16" s="23">
         <v>2</v>
       </c>
-      <c r="H16" s="24">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="6" t="str">
+      <c r="H16" s="23">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10020##</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:9">
       <c r="C17" s="5"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E17" s="16"/>
+      <c r="F17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="3:9" ht="15.75" thickBot="1">
       <c r="C18" s="5"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="24">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
+      <c r="E18" s="16"/>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
         <v>3</v>
       </c>
-      <c r="H18" s="24">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="6" t="str">
+      <c r="H18" s="23">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10030##</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:9">
       <c r="C19" s="5"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E19" s="16"/>
+      <c r="F19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="3:9" ht="15.75" thickBot="1">
       <c r="C20" s="5"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="24">
-        <v>0</v>
-      </c>
-      <c r="G20" s="24">
+      <c r="E20" s="16"/>
+      <c r="F20" s="23">
+        <v>0</v>
+      </c>
+      <c r="G20" s="23">
         <v>4</v>
       </c>
-      <c r="H20" s="24">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="6" t="str">
+      <c r="H20" s="23">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10040##</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:9">
       <c r="C21" s="5"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="3:11" ht="15.75" thickBot="1">
+      <c r="G21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="3:9" ht="15.75" thickBot="1">
       <c r="C22" s="5"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="24">
-        <v>0</v>
-      </c>
-      <c r="G22" s="24">
+      <c r="E22" s="16"/>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23">
         <v>5</v>
       </c>
-      <c r="H22" s="24">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="6" t="str">
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10050##</v>
       </c>
     </row>
-    <row r="23" spans="3:11">
+    <row r="23" spans="3:9">
       <c r="C23" s="5"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E23" s="16"/>
+      <c r="F23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="3:9" ht="15.75" thickBot="1">
       <c r="C24" s="5"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="24">
-        <v>0</v>
-      </c>
-      <c r="G24" s="24">
+      <c r="E24" s="16"/>
+      <c r="F24" s="23">
+        <v>0</v>
+      </c>
+      <c r="G24" s="23">
         <v>6</v>
       </c>
-      <c r="H24" s="24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="6" t="str">
+      <c r="H24" s="23">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10060##</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
+    <row r="25" spans="3:9">
       <c r="C25" s="5"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E25" s="16"/>
+      <c r="F25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="3:9" ht="15.75" thickBot="1">
       <c r="C26" s="5"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24">
+      <c r="E26" s="16"/>
+      <c r="F26" s="23">
+        <v>0</v>
+      </c>
+      <c r="G26" s="23">
         <v>7</v>
       </c>
-      <c r="H26" s="24">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="6" t="str">
+      <c r="H26" s="23">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10070##</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:9">
       <c r="C27" s="5"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E27" s="16"/>
+      <c r="F27" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="3:9" ht="15.75" thickBot="1">
       <c r="C28" s="5"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="24">
-        <v>0</v>
-      </c>
-      <c r="G28" s="24">
+      <c r="E28" s="16"/>
+      <c r="F28" s="23">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23">
         <v>8</v>
       </c>
-      <c r="H28" s="24">
-        <v>0</v>
-      </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="6" t="str">
+      <c r="H28" s="23">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10080##</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="3:9">
       <c r="C29" s="5"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H29" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="6"/>
-    </row>
-    <row r="30" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E29" s="16"/>
+      <c r="F29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="3:9" ht="15.75" thickBot="1">
       <c r="C30" s="5"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="24">
-        <v>0</v>
-      </c>
-      <c r="G30" s="24">
+      <c r="E30" s="16"/>
+      <c r="F30" s="23">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
         <v>9</v>
       </c>
-      <c r="H30" s="24">
-        <v>0</v>
-      </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="6" t="str">
+      <c r="H30" s="23">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10090##</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:9">
       <c r="C31" s="5"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="6"/>
-    </row>
-    <row r="32" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E31" s="16"/>
+      <c r="F31" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="3:9" ht="15.75" thickBot="1">
       <c r="C32" s="5"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="24">
+      <c r="E32" s="16"/>
+      <c r="F32" s="23">
         <v>1</v>
       </c>
-      <c r="G32" s="24">
-        <v>0</v>
-      </c>
-      <c r="H32" s="24">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="6" t="str">
+      <c r="G32" s="23">
+        <v>0</v>
+      </c>
+      <c r="H32" s="23">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10100##</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:9">
       <c r="C33" s="5"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="6"/>
-    </row>
-    <row r="34" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E33" s="16"/>
+      <c r="F33" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="3:9" ht="15.75" thickBot="1">
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="24">
+      <c r="E34" s="16"/>
+      <c r="F34" s="23">
         <v>1</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <v>1</v>
       </c>
-      <c r="H34" s="24">
-        <v>0</v>
-      </c>
-      <c r="I34" s="19"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="6" t="str">
+      <c r="H34" s="23">
+        <v>0</v>
+      </c>
+      <c r="I34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10110##</v>
       </c>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:9">
       <c r="C35" s="5"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E35" s="16"/>
+      <c r="F35" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" thickBot="1">
       <c r="C36" s="5"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="24">
+      <c r="E36" s="16"/>
+      <c r="F36" s="23">
         <v>1</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="23">
         <v>2</v>
       </c>
-      <c r="H36" s="24">
-        <v>0</v>
-      </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="6" t="str">
+      <c r="H36" s="23">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>*10120##</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:9">
       <c r="C37" s="5"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="6"/>
-    </row>
-    <row r="38" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E37" s="16"/>
+      <c r="F37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="3:9" ht="15.75" thickBot="1">
       <c r="C38" s="5"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="24">
+      <c r="E38" s="33"/>
+      <c r="F38" s="23">
         <v>1</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="23">
         <v>3</v>
       </c>
-      <c r="H38" s="24">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="6" t="str">
+      <c r="H38" s="23">
+        <v>0</v>
+      </c>
+      <c r="I38" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$10,F38,G38,H38,$H$3)</f>
         <v>*10130##</v>
       </c>
     </row>
-    <row r="39" spans="3:11">
+    <row r="39" spans="3:9">
       <c r="C39" s="5"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="18"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="17"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="6"/>
-    </row>
-    <row r="40" spans="3:11" ht="15.75" thickBot="1">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="3:9" ht="15.75" thickBot="1">
       <c r="C40" s="5"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="24">
+      <c r="D40" s="16"/>
+      <c r="E40" s="23">
         <v>1</v>
       </c>
-      <c r="F40" s="21"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="6"/>
-    </row>
-    <row r="41" spans="3:11">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="3:9">
       <c r="C41" s="5"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="19"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="18"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="6"/>
-    </row>
-    <row r="42" spans="3:11" ht="15.75" thickBot="1">
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="3:9" ht="15.75" thickBot="1">
       <c r="C42" s="5"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="24">
-        <v>0</v>
-      </c>
-      <c r="G42" s="19"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="23">
+        <v>0</v>
+      </c>
+      <c r="G42" s="18"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,E40,F42,$H$3)</f>
         <v>*110##</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:9">
       <c r="C43" s="5"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="18"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="17"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="3:11" ht="15.75" thickBot="1">
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="3:9" ht="15.75" thickBot="1">
       <c r="C44" s="5"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="24">
+      <c r="D44" s="16"/>
+      <c r="E44" s="23">
         <v>2</v>
       </c>
-      <c r="F44" s="21"/>
-      <c r="G44" s="25"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="24"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="6"/>
-    </row>
-    <row r="45" spans="3:11">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="3:9">
       <c r="C45" s="5"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="6"/>
-    </row>
-    <row r="46" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E45" s="21"/>
+      <c r="F45" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="3:9" ht="15.75" thickBot="1">
       <c r="C46" s="5"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="24">
-        <v>0</v>
-      </c>
-      <c r="G46" s="24">
-        <v>0</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="6" t="str">
+      <c r="E46" s="16"/>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18"/>
+      <c r="I46" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$44,F46,G46,$H$3)</f>
         <v>*1200##</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:9">
       <c r="C47" s="5"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="6"/>
-    </row>
-    <row r="48" spans="3:11" ht="15.75" thickBot="1">
+      <c r="E47" s="16"/>
+      <c r="F47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="3:9" ht="15.75" thickBot="1">
       <c r="C48" s="5"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="24">
+      <c r="E48" s="16"/>
+      <c r="F48" s="23">
         <v>1</v>
       </c>
-      <c r="G48" s="24">
-        <v>0</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="6" t="str">
+      <c r="G48" s="23">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$44,F48,G48,$H$3)</f>
         <v>*1210##</v>
       </c>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:10">
       <c r="C49" s="5"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="6"/>
-    </row>
-    <row r="50" spans="3:12" ht="15.75" thickBot="1">
+      <c r="E49" s="16"/>
+      <c r="F49" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="3:10" ht="15.75" thickBot="1">
       <c r="C50" s="5"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="24">
+      <c r="E50" s="16"/>
+      <c r="F50" s="23">
         <v>2</v>
       </c>
-      <c r="G50" s="24">
-        <v>0</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="6" t="str">
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$44,F50,G50,$H$3)</f>
         <v>*1220##</v>
       </c>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:10">
       <c r="C51" s="5"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="3:12" ht="15.75" thickBot="1">
+      <c r="E51" s="16"/>
+      <c r="F51" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="18"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="3:10" ht="15.75" thickBot="1">
       <c r="C52" s="5"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="24">
+      <c r="E52" s="16"/>
+      <c r="F52" s="23">
         <v>3</v>
       </c>
-      <c r="G52" s="24">
-        <v>0</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="6" t="str">
+      <c r="G52" s="23">
+        <v>0</v>
+      </c>
+      <c r="H52" s="18"/>
+      <c r="I52" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$44,F52,G52,$H$3)</f>
         <v>*1230##</v>
       </c>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:10">
       <c r="C53" s="5"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="6"/>
-    </row>
-    <row r="54" spans="3:12" ht="15.75" thickBot="1">
+      <c r="E53" s="16"/>
+      <c r="F53" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="3:10" ht="15.75" thickBot="1">
       <c r="C54" s="5"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="24">
+      <c r="E54" s="16"/>
+      <c r="F54" s="23">
         <v>4</v>
       </c>
-      <c r="G54" s="24">
-        <v>0</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="6" t="str">
+      <c r="G54" s="23">
+        <v>0</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$44,F54,G54,$H$3)</f>
         <v>*1240##</v>
       </c>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:10">
       <c r="C55" s="5"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="6"/>
-    </row>
-    <row r="56" spans="3:12" ht="15.75" thickBot="1">
+      <c r="E55" s="16"/>
+      <c r="F55" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="3:10" ht="15.75" thickBot="1">
       <c r="C56" s="5"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="24">
+      <c r="E56" s="16"/>
+      <c r="F56" s="23">
         <v>5</v>
       </c>
-      <c r="G56" s="24">
-        <v>0</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="6" t="str">
+      <c r="G56" s="23">
+        <v>0</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$44,F56,G56,$H$3)</f>
         <v>*1250##</v>
       </c>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:10">
       <c r="C57" s="5"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="6"/>
-    </row>
-    <row r="58" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C58" s="28"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="24">
+      <c r="E57" s="16"/>
+      <c r="F57" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="18"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C58" s="27"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="23">
         <v>6</v>
       </c>
-      <c r="G58" s="24">
-        <v>0</v>
-      </c>
-      <c r="H58" s="21"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="29" t="str">
+      <c r="G58" s="23">
+        <v>0</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="28" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$44,F58,G58,$H$3)</f>
         <v>*1260##</v>
       </c>
     </row>
-    <row r="59" spans="3:12">
-      <c r="C59" s="31"/>
-      <c r="D59" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="33"/>
+    <row r="59" spans="3:10">
+      <c r="C59" s="30"/>
+      <c r="D59" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="31"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C60" s="16"/>
-      <c r="D60" s="24">
-        <v>0</v>
-      </c>
-      <c r="E60" s="21"/>
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C60" s="15"/>
+      <c r="D60" s="23">
+        <v>0</v>
+      </c>
+      <c r="E60" s="20"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="6"/>
-    </row>
-    <row r="61" spans="3:12">
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="3:10">
       <c r="C61" s="5"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F61" s="19"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="18"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="27"/>
-    </row>
-    <row r="62" spans="3:12" ht="15.75" thickBot="1">
+      <c r="I61" s="6"/>
+      <c r="J61" s="26"/>
+    </row>
+    <row r="62" spans="3:10" ht="15.75" thickBot="1">
       <c r="C62" s="5"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="24">
-        <v>0</v>
-      </c>
-      <c r="F62" s="19"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="23">
+        <v>0</v>
+      </c>
+      <c r="F62" s="18"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="6" t="str">
+      <c r="I62" s="6" t="str">
         <f>CONCATENATE($H$2,$D$60,E62,$H$3)</f>
         <v>*00##</v>
       </c>
-      <c r="L62" s="27"/>
-    </row>
-    <row r="63" spans="3:12">
+      <c r="J62" s="26"/>
+    </row>
+    <row r="63" spans="3:10">
       <c r="C63" s="5"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="19"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="18"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="27"/>
-    </row>
-    <row r="64" spans="3:12" ht="15.75" thickBot="1">
+      <c r="I63" s="6"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="64" spans="3:10" ht="15.75" thickBot="1">
       <c r="C64" s="5"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="24">
+      <c r="D64" s="16"/>
+      <c r="E64" s="23">
         <v>2</v>
       </c>
-      <c r="F64" s="19"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="6" t="str">
+      <c r="I64" s="6" t="str">
         <f>CONCATENATE($H$2,$D$60,E64,$H$3)</f>
         <v>*02##</v>
       </c>
-      <c r="L64" s="27"/>
-    </row>
-    <row r="65" spans="3:12">
+      <c r="J64" s="26"/>
+    </row>
+    <row r="65" spans="3:10">
       <c r="C65" s="5"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="19"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F65" s="18"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="27"/>
-    </row>
-    <row r="66" spans="3:12" ht="15.75" thickBot="1">
+      <c r="I65" s="6"/>
+      <c r="J65" s="26"/>
+    </row>
+    <row r="66" spans="3:10" ht="15.75" thickBot="1">
       <c r="C66" s="5"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="24">
+      <c r="D66" s="16"/>
+      <c r="E66" s="23">
         <v>3</v>
       </c>
-      <c r="F66" s="21"/>
+      <c r="F66" s="20"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="6" t="str">
+      <c r="I66" s="6" t="str">
         <f>CONCATENATE($H$2,$D$60,E66,$H$3)</f>
         <v>*03##</v>
       </c>
-      <c r="L66" s="27"/>
-    </row>
-    <row r="67" spans="3:12">
+      <c r="J66" s="26"/>
+    </row>
+    <row r="67" spans="3:10">
       <c r="C67" s="5"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G67" s="19"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="18"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="27"/>
-    </row>
-    <row r="68" spans="3:12" ht="15.75" thickBot="1">
+      <c r="I67" s="6"/>
+      <c r="J67" s="26"/>
+    </row>
+    <row r="68" spans="3:10" ht="15.75" thickBot="1">
       <c r="C68" s="5"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="24">
+      <c r="E68" s="16"/>
+      <c r="F68" s="23">
         <v>1</v>
       </c>
-      <c r="G68" s="19"/>
+      <c r="G68" s="18"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="6" t="str">
+      <c r="I68" s="6" t="str">
         <f>CONCATENATE($H$2,$D$60,$E$66,F68,$H$3)</f>
         <v>*031##</v>
       </c>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:10">
       <c r="C69" s="5"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G69" s="19"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="18"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="6"/>
-    </row>
-    <row r="70" spans="3:12" ht="15.75" thickBot="1">
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="3:10" ht="15.75" thickBot="1">
       <c r="C70" s="5"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="24">
+      <c r="E70" s="16"/>
+      <c r="F70" s="23">
         <v>2</v>
       </c>
-      <c r="G70" s="19"/>
+      <c r="G70" s="18"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="6" t="str">
+      <c r="I70" s="6" t="str">
         <f>CONCATENATE($H$2,$D$60,$E$66,F70,$H$3)</f>
         <v>*032##</v>
       </c>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:10">
       <c r="C71" s="5"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="19"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G71" s="18"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="6"/>
-    </row>
-    <row r="72" spans="3:12" ht="15.75" thickBot="1">
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="3:10" ht="15.75" thickBot="1">
       <c r="C72" s="5"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="24">
+      <c r="E72" s="16"/>
+      <c r="F72" s="23">
         <v>3</v>
       </c>
-      <c r="G72" s="19"/>
+      <c r="G72" s="18"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="6" t="str">
+      <c r="I72" s="6" t="str">
         <f>CONCATENATE($H$2,$D$60,$E$66,F72,$H$3)</f>
         <v>*033##</v>
       </c>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:10">
       <c r="C73" s="5"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G73" s="19"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" s="18"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="6"/>
-    </row>
-    <row r="74" spans="3:12" ht="15.75" thickBot="1">
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="3:10" ht="15.75" thickBot="1">
       <c r="C74" s="5"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="24">
+      <c r="E74" s="16"/>
+      <c r="F74" s="23">
         <v>4</v>
       </c>
-      <c r="G74" s="19"/>
+      <c r="G74" s="18"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="6" t="str">
+      <c r="I74" s="6" t="str">
         <f>CONCATENATE($H$2,$D$60,$E$66,F74,$H$3)</f>
         <v>*034##</v>
       </c>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:10">
       <c r="C75" s="5"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="19"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="18"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="6"/>
-    </row>
-    <row r="76" spans="3:12" ht="15.75" thickBot="1">
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="24">
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C76" s="5"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="23">
         <v>5</v>
       </c>
-      <c r="G76" s="32"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="9" t="str">
+      <c r="G76" s="18"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="9" t="str">
         <f>CONCATENATE($H$2,$D$60,$E$66,F76,$H$3)</f>
         <v>*035##</v>
+      </c>
+    </row>
+    <row r="77" spans="3:10">
+      <c r="C77" s="5"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C78" s="7"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="23">
+        <v>6</v>
+      </c>
+      <c r="G78" s="23">
+        <v>0</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="9" t="str">
+        <f>CONCATENATE($H$2,$D$60,$E$66,F78,G78,$H$3)</f>
+        <v>*0360##</v>
       </c>
     </row>
   </sheetData>
@@ -2345,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2374,7 +2257,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
@@ -2391,10 +2274,10 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -2429,69 +2312,69 @@
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1">
       <c r="B6" s="1"/>
-      <c r="C6" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="38" t="s">
-        <v>7</v>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="35" t="s">
+        <v>6</v>
       </c>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="1"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" thickBot="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="24">
-        <v>0</v>
-      </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="42"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="39"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="19"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2502,12 +2385,12 @@
     <row r="10" spans="2:12" ht="15.75" thickBot="1">
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="24">
+      <c r="D10" s="41"/>
+      <c r="E10" s="23">
         <v>1</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2517,15 +2400,15 @@
     <row r="11" spans="2:12">
       <c r="B11" s="1"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="19"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
@@ -2534,16 +2417,16 @@
     <row r="12" spans="2:12" ht="15.75" thickBot="1">
       <c r="B12" s="1"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="24">
-        <v>0</v>
-      </c>
-      <c r="G12" s="24">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="25"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
       <c r="L12" s="1"/>
@@ -2554,70 +2437,70 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="19"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="18"/>
       <c r="K13" s="6"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" thickBot="1">
-      <c r="C14" s="43"/>
-      <c r="D14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="G14" s="16"/>
+      <c r="H14" s="23">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
         <v>1</v>
       </c>
-      <c r="J14" s="19"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="6" t="str">
-        <f>CONCATENATE($H$2,D8,$E$10,$F$12,$G$12,H14,I14,",,,",$H$3)</f>
-        <v>*010001,,,##</v>
+        <f>CONCATENATE($H$2,D8,$E$10,$F$12,$G$12,H14,I14,$H$3)</f>
+        <v>*010001##</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="19"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="51"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" thickBot="1">
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="3:11">
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>48</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2625,13 +2508,13 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="24">
-        <v>0</v>
-      </c>
-      <c r="G18" s="24">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="23">
+        <v>0</v>
+      </c>
+      <c r="G18" s="23">
         <v>0</v>
       </c>
       <c r="H18" s="2"/>
@@ -2643,64 +2526,64 @@
       </c>
     </row>
     <row r="19" spans="3:11">
-      <c r="C19" s="39"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="19"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="51"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C20" s="39"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="24">
+      <c r="C20" s="36"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="23">
         <v>2</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="25"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="3:11">
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="23" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>47</v>
+      <c r="I21" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="24">
-        <v>0</v>
-      </c>
-      <c r="G22" s="24">
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="23">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23">
+        <v>0</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
         <v>0</v>
       </c>
       <c r="J22" s="2"/>

--- a/proto.xlsx
+++ b/proto.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Body" sheetId="1" r:id="rId1"/>
     <sheet name="Head" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>*</t>
   </si>
@@ -66,45 +65,9 @@
     <t>bit 5</t>
   </si>
   <si>
-    <t>tete</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horizontal</t>
-  </si>
-  <si>
     <t>vitesse</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vertical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avant gauche </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> epaule</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> coude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">milieu gauche </t>
-  </si>
-  <si>
-    <t xml:space="preserve">arriere gauche </t>
-  </si>
-  <si>
-    <t xml:space="preserve">avant droite </t>
-  </si>
-  <si>
-    <t>avant droite</t>
-  </si>
-  <si>
-    <t>milieu droite</t>
-  </si>
-  <si>
-    <t>arriere droite</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -187,6 +150,63 @@
   </si>
   <si>
     <t>from TCP</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>tete Horizontal</t>
+  </si>
+  <si>
+    <t>tete Vertical</t>
+  </si>
+  <si>
+    <t>avant gauche epaule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">milieu gauche epaule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arriere gauche epaule </t>
+  </si>
+  <si>
+    <t xml:space="preserve">avant droite epaule </t>
+  </si>
+  <si>
+    <t>milieu droite epaule</t>
+  </si>
+  <si>
+    <t>arriere droite epaule</t>
+  </si>
+  <si>
+    <t>arriere droite coude</t>
+  </si>
+  <si>
+    <t>milieu droite coude</t>
+  </si>
+  <si>
+    <t>avant droite coude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arriere gauche coude </t>
+  </si>
+  <si>
+    <t xml:space="preserve">milieu gauche coude </t>
+  </si>
+  <si>
+    <t>avant gauche coude</t>
+  </si>
+  <si>
+    <t>position</t>
   </si>
 </sst>
 </file>
@@ -1128,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1137,8 +1157,9 @@
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -1162,7 +1183,7 @@
     <row r="5" spans="3:9" ht="15.75" thickBot="1"/>
     <row r="6" spans="3:9" ht="27" customHeight="1" thickBot="1">
       <c r="C6" s="50" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>11</v>
@@ -1232,13 +1253,13 @@
       <c r="D11" s="24"/>
       <c r="E11" s="21"/>
       <c r="F11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1265,13 +1286,13 @@
       <c r="D13" s="10"/>
       <c r="E13" s="16"/>
       <c r="F13" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>16</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1280,17 +1301,17 @@
       <c r="D14" s="2"/>
       <c r="E14" s="16"/>
       <c r="F14" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="23">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="str">
-        <f t="shared" ref="I14:I36" si="0">CONCATENATE($H$2,$D$8,$E$10,F14,G14,H14,$H$3)</f>
-        <v>*10010##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F14,G14,H14,$H$3)</f>
+        <v>*10100##</v>
       </c>
     </row>
     <row r="15" spans="3:9">
@@ -1298,13 +1319,13 @@
       <c r="D15" s="2"/>
       <c r="E15" s="16"/>
       <c r="F15" s="22" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -1313,17 +1334,17 @@
       <c r="D16" s="2"/>
       <c r="E16" s="16"/>
       <c r="F16" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="23">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10020##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F16,G16,H16,$H$3)</f>
+        <v>*10200##</v>
       </c>
     </row>
     <row r="17" spans="3:9">
@@ -1331,13 +1352,13 @@
       <c r="D17" s="2"/>
       <c r="E17" s="16"/>
       <c r="F17" s="22" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -1346,17 +1367,17 @@
       <c r="D18" s="2"/>
       <c r="E18" s="16"/>
       <c r="F18" s="23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" s="23">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10030##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F18,G18,H18,$H$3)</f>
+        <v>*10300##</v>
       </c>
     </row>
     <row r="19" spans="3:9">
@@ -1364,13 +1385,13 @@
       <c r="D19" s="2"/>
       <c r="E19" s="16"/>
       <c r="F19" s="22" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="6"/>
     </row>
@@ -1379,17 +1400,17 @@
       <c r="D20" s="2"/>
       <c r="E20" s="16"/>
       <c r="F20" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20" s="23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="23">
         <v>0</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10040##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F20,G20,H20,$H$3)</f>
+        <v>*10400##</v>
       </c>
     </row>
     <row r="21" spans="3:9">
@@ -1397,13 +1418,13 @@
       <c r="D21" s="2"/>
       <c r="E21" s="16"/>
       <c r="F21" s="22" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I21" s="6"/>
     </row>
@@ -1412,17 +1433,17 @@
       <c r="D22" s="2"/>
       <c r="E22" s="16"/>
       <c r="F22" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G22" s="23">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" s="23">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10050##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F22,G22,H22,$H$3)</f>
+        <v>*10500##</v>
       </c>
     </row>
     <row r="23" spans="3:9">
@@ -1430,13 +1451,13 @@
       <c r="D23" s="2"/>
       <c r="E23" s="16"/>
       <c r="F23" s="22" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I23" s="6"/>
     </row>
@@ -1445,17 +1466,17 @@
       <c r="D24" s="2"/>
       <c r="E24" s="16"/>
       <c r="F24" s="23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G24" s="23">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H24" s="23">
         <v>0</v>
       </c>
       <c r="I24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10060##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F24,G24,H24,$H$3)</f>
+        <v>*10600##</v>
       </c>
     </row>
     <row r="25" spans="3:9">
@@ -1463,13 +1484,13 @@
       <c r="D25" s="2"/>
       <c r="E25" s="16"/>
       <c r="F25" s="22" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I25" s="6"/>
     </row>
@@ -1478,17 +1499,17 @@
       <c r="D26" s="2"/>
       <c r="E26" s="16"/>
       <c r="F26" s="23">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G26" s="23">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H26" s="23">
         <v>0</v>
       </c>
       <c r="I26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10070##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F26,G26,H26,$H$3)</f>
+        <v>*10700##</v>
       </c>
     </row>
     <row r="27" spans="3:9">
@@ -1496,13 +1517,13 @@
       <c r="D27" s="2"/>
       <c r="E27" s="16"/>
       <c r="F27" s="22" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I27" s="6"/>
     </row>
@@ -1511,17 +1532,17 @@
       <c r="D28" s="2"/>
       <c r="E28" s="16"/>
       <c r="F28" s="23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G28" s="23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H28" s="23">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10080##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F28,G28,H28,$H$3)</f>
+        <v>*10800##</v>
       </c>
     </row>
     <row r="29" spans="3:9">
@@ -1529,13 +1550,13 @@
       <c r="D29" s="2"/>
       <c r="E29" s="16"/>
       <c r="F29" s="22" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="6"/>
     </row>
@@ -1544,17 +1565,17 @@
       <c r="D30" s="2"/>
       <c r="E30" s="16"/>
       <c r="F30" s="23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G30" s="23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H30" s="23">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10090##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F30,G30,H30,$H$3)</f>
+        <v>*10900##</v>
       </c>
     </row>
     <row r="31" spans="3:9">
@@ -1562,13 +1583,13 @@
       <c r="D31" s="2"/>
       <c r="E31" s="16"/>
       <c r="F31" s="22" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="6"/>
     </row>
@@ -1576,8 +1597,8 @@
       <c r="C32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="16"/>
-      <c r="F32" s="23">
-        <v>1</v>
+      <c r="F32" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="G32" s="23">
         <v>0</v>
@@ -1586,8 +1607,8 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10100##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F32,G32,H32,$H$3)</f>
+        <v>*10A00##</v>
       </c>
     </row>
     <row r="33" spans="3:9">
@@ -1595,13 +1616,13 @@
       <c r="D33" s="2"/>
       <c r="E33" s="16"/>
       <c r="F33" s="22" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="6"/>
     </row>
@@ -1609,18 +1630,18 @@
       <c r="C34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="16"/>
-      <c r="F34" s="23">
-        <v>1</v>
+      <c r="F34" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="G34" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="23">
         <v>0</v>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10110##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F34,G34,H34,$H$3)</f>
+        <v>*10B00##</v>
       </c>
     </row>
     <row r="35" spans="3:9">
@@ -1628,13 +1649,13 @@
       <c r="D35" s="2"/>
       <c r="E35" s="16"/>
       <c r="F35" s="22" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="6"/>
     </row>
@@ -1642,18 +1663,18 @@
       <c r="C36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="16"/>
-      <c r="F36" s="23">
-        <v>1</v>
+      <c r="F36" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="G36" s="23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H36" s="23">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>*10120##</v>
+        <f>CONCATENATE($H$2,$D$8,$E$10,F36,G36,H36,$H$3)</f>
+        <v>*10C00##</v>
       </c>
     </row>
     <row r="37" spans="3:9">
@@ -1661,13 +1682,13 @@
       <c r="D37" s="2"/>
       <c r="E37" s="16"/>
       <c r="F37" s="22" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="6"/>
     </row>
@@ -1675,18 +1696,18 @@
       <c r="C38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="23">
-        <v>1</v>
+      <c r="F38" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="G38" s="23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H38" s="23">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="str">
         <f>CONCATENATE($H$2,$D$8,$E$10,F38,G38,H38,$H$3)</f>
-        <v>*10130##</v>
+        <v>*10D00##</v>
       </c>
     </row>
     <row r="39" spans="3:9">
@@ -1763,10 +1784,10 @@
       <c r="D45" s="2"/>
       <c r="E45" s="21"/>
       <c r="F45" s="22" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="6"/>
@@ -1792,10 +1813,10 @@
       <c r="D47" s="2"/>
       <c r="E47" s="16"/>
       <c r="F47" s="22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H47" s="18"/>
       <c r="I47" s="6"/>
@@ -1821,10 +1842,10 @@
       <c r="D49" s="2"/>
       <c r="E49" s="16"/>
       <c r="F49" s="22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H49" s="18"/>
       <c r="I49" s="6"/>
@@ -1850,10 +1871,10 @@
       <c r="D51" s="2"/>
       <c r="E51" s="16"/>
       <c r="F51" s="22" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="6"/>
@@ -1879,10 +1900,10 @@
       <c r="D53" s="2"/>
       <c r="E53" s="16"/>
       <c r="F53" s="22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H53" s="18"/>
       <c r="I53" s="6"/>
@@ -1908,10 +1929,10 @@
       <c r="D55" s="2"/>
       <c r="E55" s="16"/>
       <c r="F55" s="22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="6"/>
@@ -1937,10 +1958,10 @@
       <c r="D57" s="2"/>
       <c r="E57" s="16"/>
       <c r="F57" s="22" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="6"/>
@@ -1987,7 +2008,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="21"/>
       <c r="E61" s="22" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="2"/>
@@ -2014,7 +2035,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="16"/>
       <c r="E63" s="22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F63" s="18"/>
       <c r="G63" s="2"/>
@@ -2041,7 +2062,7 @@
       <c r="C65" s="5"/>
       <c r="D65" s="16"/>
       <c r="E65" s="22" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="2"/>
@@ -2069,7 +2090,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="21"/>
       <c r="F67" s="22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="2"/>
@@ -2095,7 +2116,7 @@
       <c r="D69" s="2"/>
       <c r="E69" s="16"/>
       <c r="F69" s="22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="2"/>
@@ -2120,7 +2141,7 @@
       <c r="D71" s="2"/>
       <c r="E71" s="16"/>
       <c r="F71" s="22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="2"/>
@@ -2145,7 +2166,7 @@
       <c r="D73" s="2"/>
       <c r="E73" s="16"/>
       <c r="F73" s="22" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G73" s="18"/>
       <c r="H73" s="2"/>
@@ -2170,7 +2191,7 @@
       <c r="D75" s="2"/>
       <c r="E75" s="16"/>
       <c r="F75" s="22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="2"/>
@@ -2195,10 +2216,10 @@
       <c r="D77" s="2"/>
       <c r="E77" s="16"/>
       <c r="F77" s="22" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G77" s="22" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H77" s="2"/>
       <c r="I77" s="6"/>
@@ -2229,7 +2250,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2313,7 +2334,7 @@
     <row r="6" spans="2:12" ht="15.75" thickBot="1">
       <c r="B6" s="1"/>
       <c r="C6" s="49" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>11</v>
@@ -2341,7 +2362,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="30"/>
       <c r="D7" s="22" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="37"/>
@@ -2372,7 +2393,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="44"/>
       <c r="E9" s="22" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="2"/>
@@ -2403,10 +2424,10 @@
       <c r="D11" s="36"/>
       <c r="E11" s="21"/>
       <c r="F11" s="22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="2"/>
@@ -2439,10 +2460,10 @@
       <c r="F13" s="10"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="J13" s="18"/>
       <c r="K13" s="6"/>
@@ -2470,7 +2491,7 @@
       <c r="C15" s="45"/>
       <c r="D15" s="46"/>
       <c r="E15" s="22" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="2"/>
@@ -2497,10 +2518,10 @@
       <c r="D17" s="36"/>
       <c r="E17" s="21"/>
       <c r="F17" s="22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2529,7 +2550,7 @@
       <c r="C19" s="36"/>
       <c r="D19" s="41"/>
       <c r="E19" s="22" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="2"/>
@@ -2556,16 +2577,16 @@
       <c r="D21" s="36"/>
       <c r="E21" s="34"/>
       <c r="F21" s="22" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I21" s="22" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="6"/>
@@ -2595,16 +2616,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>